--- a/medicine/Hématologie/Poïkilocytose/Poïkilocytose.xlsx
+++ b/medicine/Hématologie/Poïkilocytose/Poïkilocytose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Po%C3%AFkilocytose</t>
+          <t>Poïkilocytose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La poïkilocytose (du grec poikilos: varié, changeant et cytos: la cellule) exprime la présence dans le sang de globules rouges déformés qui peuvent parfois prendre une forme très irrégulière (poire, virgule, raquette...). 
 La poïkilocytose se rencontre dans la plupart des anémies et, plus particulièrement, dans les anémies mégaloblastiques, certaines anémies hémolytiques et à un degré marqué dans les myélofibroses.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Po%C3%AFkilocytose</t>
+          <t>Poïkilocytose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Types de poïkilocytose</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Anomalie de forme des globules rouges (Poïkilocytose) : 
 anomalie de membranes : Acanthocyte, Codocyte, Ovalocyte, Spherocyte ;
